--- a/admin/uploads/import/format/question_import.xlsx
+++ b/admin/uploads/import/format/question_import.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\open\admin\uploads\import\format\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76739FD4-DDBF-488C-8BB9-5B704B43D2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>question</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>option_a</t>
   </si>
@@ -42,12 +40,21 @@
   </si>
   <si>
     <t>answer</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Quiz_id</t>
+  </si>
+  <si>
+    <t>Type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -77,8 +84,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -358,33 +366,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/admin/uploads/import/format/question_import.xlsx
+++ b/admin/uploads/import/format/question_import.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\open\admin\uploads\import\format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76739FD4-DDBF-488C-8BB9-5B704B43D2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACB6789-A9D8-41CA-AC10-8AFD0AC2369C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>option_a</t>
   </si>
@@ -45,10 +45,19 @@
     <t>Question</t>
   </si>
   <si>
-    <t>Quiz_id</t>
-  </si>
-  <si>
-    <t>Type</t>
+    <t>file</t>
+  </si>
+  <si>
+    <t>file_a</t>
+  </si>
+  <si>
+    <t>file_b</t>
+  </si>
+  <si>
+    <t>file_c</t>
+  </si>
+  <si>
+    <t>file_d</t>
   </si>
 </sst>
 </file>
@@ -84,9 +93,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -367,38 +375,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/admin/uploads/import/format/question_import.xlsx
+++ b/admin/uploads/import/format/question_import.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\open\admin\uploads\import\format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACB6789-A9D8-41CA-AC10-8AFD0AC2369C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68156E1F-ECA7-4550-B50D-BA41B85C26A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,18 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t>option_a</t>
-  </si>
-  <si>
-    <t>option_b</t>
-  </si>
-  <si>
-    <t>option_c</t>
-  </si>
-  <si>
-    <t>option_d</t>
-  </si>
-  <si>
     <t>answer</t>
   </si>
   <si>
@@ -58,6 +46,18 @@
   </si>
   <si>
     <t>file_d</t>
+  </si>
+  <si>
+    <t>option_1</t>
+  </si>
+  <si>
+    <t>option_2</t>
+  </si>
+  <si>
+    <t>option_3</t>
+  </si>
+  <si>
+    <t>option_4</t>
   </si>
 </sst>
 </file>
@@ -377,43 +377,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
